--- a/Exam 2023-06-27 analysis/Exam 2023-06-27.xlsx
+++ b/Exam 2023-06-27 analysis/Exam 2023-06-27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiomason/Documents/Università/Laurea_magistrale/Tesi/masters-degree-thesis/Exam 2023-06-27/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiomason/Documents/Università/Laurea_magistrale/Tesi/masters-degree-thesis/Exam 2023-06-27 analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B581EE-B337-8B41-B85E-A045A0974983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAA68A-518B-9F45-AB98-308281060E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" xr2:uid="{460E5720-E29C-2F47-A9C3-E4F999F2DDC4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{460E5720-E29C-2F47-A9C3-E4F999F2DDC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -2121,7 +2121,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2261,7 +2261,7 @@
         <v>21.388657407407415</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:H2" si="0">SUM(C3:C430)</f>
+        <f t="shared" ref="C2:AN2" si="0">SUM(C3:C430)</f>
         <v>253098</v>
       </c>
       <c r="D2" s="1">
@@ -2285,131 +2285,131 @@
         <v>26</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:X2" si="1">SUM(I3:I430)</f>
+        <f t="shared" si="0"/>
         <v>291</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>552</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="T2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="W2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="X2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="Y2" s="1">
-        <f t="shared" ref="Y2" si="2">SUM(Y3:Y430)</f>
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="Z2" s="1">
-        <f t="shared" ref="Z2" si="3">SUM(Z3:Z430)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="AA2" s="1">
-        <f t="shared" ref="AA2" si="4">SUM(AA3:AA430)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="AB2" s="1">
-        <f t="shared" ref="AB2" si="5">SUM(AB3:AB430)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AC2" s="1">
-        <f t="shared" ref="AC2" si="6">SUM(AC3:AC430)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AD2" si="7">SUM(AD3:AD430)</f>
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2" si="8">SUM(AE3:AE430)</f>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2" si="9">SUM(AF3:AF430)</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="AG2" s="1">
-        <f t="shared" ref="AG2" si="10">SUM(AG3:AG430)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2" si="11">SUM(AH3:AH430)</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2" si="12">SUM(AI3:AI430)</f>
+        <f t="shared" si="0"/>
         <v>178</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2" si="13">SUM(AJ3:AJ430)</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2" si="14">SUM(AK3:AK430)</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="AL2" s="1">
-        <f t="shared" ref="AL2" si="15">SUM(AL3:AL430)</f>
+        <f t="shared" si="0"/>
         <v>448</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AN2" si="16">SUM(AM3:AM430)</f>
+        <f t="shared" si="0"/>
         <v>1206</v>
       </c>
       <c r="AN2" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
     </row>
@@ -2486,11 +2486,11 @@
         <v>6</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F68" si="17">SUM(H5:O5)</f>
+        <f t="shared" ref="F5:F68" si="1">SUM(H5:O5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G68" si="18">SUM(P5:AN5)</f>
+        <f t="shared" ref="G5:G68" si="2">SUM(P5:AN5)</f>
         <v>6</v>
       </c>
       <c r="AL5">
@@ -2515,11 +2515,11 @@
         <v>6</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL6">
@@ -2544,11 +2544,11 @@
         <v>6</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL7">
@@ -2573,11 +2573,11 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL8">
@@ -2602,11 +2602,11 @@
         <v>6</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL9">
@@ -2633,11 +2633,11 @@
         <v>11</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AH10">
@@ -2667,11 +2667,11 @@
         <v>63</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="O11">
@@ -2720,11 +2720,11 @@
         <v>4</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD12">
@@ -2746,11 +2746,11 @@
         <v>9</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL13">
@@ -2775,11 +2775,11 @@
         <v>6</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL14">
@@ -2804,11 +2804,11 @@
         <v>9</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL15">
@@ -2833,11 +2833,11 @@
         <v>9</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL16">
@@ -2862,11 +2862,11 @@
         <v>6</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL17">
@@ -2891,11 +2891,11 @@
         <v>13</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AD18">
@@ -2925,11 +2925,11 @@
         <v>26</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I19" s="3">
@@ -2963,11 +2963,11 @@
         <v>6</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL20">
@@ -2992,11 +2992,11 @@
         <v>6</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL21">
@@ -3021,11 +3021,11 @@
         <v>6</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL22">
@@ -3052,11 +3052,11 @@
         <v>11</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AH23">
@@ -3089,11 +3089,11 @@
         <v>18</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M24">
@@ -3136,11 +3136,11 @@
         <v>6</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL25">
@@ -3165,11 +3165,11 @@
         <v>6</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL26">
@@ -3194,11 +3194,11 @@
         <v>9</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL27">
@@ -3223,11 +3223,11 @@
         <v>11</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Z28">
@@ -3258,11 +3258,11 @@
         <v>2</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AL29">
@@ -3287,11 +3287,11 @@
         <v>6</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL30">
@@ -3316,11 +3316,11 @@
         <v>6</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL31">
@@ -3345,11 +3345,11 @@
         <v>8</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R32">
@@ -3380,11 +3380,11 @@
         <v>9</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL33">
@@ -3409,11 +3409,11 @@
         <v>9</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL34">
@@ -3438,11 +3438,11 @@
         <v>9</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL35">
@@ -3467,11 +3467,11 @@
         <v>9</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL36">
@@ -3496,11 +3496,11 @@
         <v>6</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL37">
@@ -3525,11 +3525,11 @@
         <v>19</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AF38">
@@ -3563,11 +3563,11 @@
         <v>2</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AM39">
@@ -3594,11 +3594,11 @@
         <v>6</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H40" s="3">
@@ -3632,11 +3632,11 @@
         <v>9</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL41">
@@ -3663,11 +3663,11 @@
         <v>15</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="R42">
@@ -3701,11 +3701,11 @@
         <v>9</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL43">
@@ -3730,11 +3730,11 @@
         <v>9</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL44">
@@ -3761,11 +3761,11 @@
         <v>16</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I45" s="3">
@@ -3807,11 +3807,11 @@
         <v>22</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="M46">
@@ -3871,11 +3871,11 @@
         <v>18</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H47" s="3">
@@ -3912,11 +3912,11 @@
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R48">
@@ -3943,11 +3943,11 @@
         <v>7</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R49">
@@ -3980,11 +3980,11 @@
         <v>15</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AC50">
@@ -4015,11 +4015,11 @@
         <v>6</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R51">
@@ -4050,11 +4050,11 @@
         <v>6</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL52">
@@ -4081,11 +4081,11 @@
         <v>20</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="R53">
@@ -4118,11 +4118,11 @@
         <v>45</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="J54">
@@ -4165,11 +4165,11 @@
         <v>6</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL55">
@@ -4194,11 +4194,11 @@
         <v>9</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL56">
@@ -4225,11 +4225,11 @@
         <v>24</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I57" s="3">
@@ -4269,11 +4269,11 @@
         <v>9</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL58">
@@ -4298,11 +4298,11 @@
         <v>9</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL59">
@@ -4327,11 +4327,11 @@
         <v>9</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL60">
@@ -4356,11 +4356,11 @@
         <v>6</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL61">
@@ -4385,11 +4385,11 @@
         <v>5</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R62">
@@ -4417,11 +4417,11 @@
         <v>6</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL63">
@@ -4448,11 +4448,11 @@
         <v>25</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R64">
@@ -4486,11 +4486,11 @@
         <v>9</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL65">
@@ -4515,11 +4515,11 @@
         <v>9</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL66">
@@ -4544,11 +4544,11 @@
         <v>9</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AL67">
@@ -4573,11 +4573,11 @@
         <v>6</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL68">
@@ -4602,11 +4602,11 @@
         <v>8</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" ref="F69:F132" si="19">SUM(H69:O69)</f>
+        <f t="shared" ref="F69:F132" si="3">SUM(H69:O69)</f>
         <v>0</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" ref="G69:G132" si="20">SUM(P69:AN69)</f>
+        <f t="shared" ref="G69:G132" si="4">SUM(P69:AN69)</f>
         <v>7</v>
       </c>
       <c r="AL69">
@@ -4631,11 +4631,11 @@
         <v>9</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL70">
@@ -4660,11 +4660,11 @@
         <v>9</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL71">
@@ -4689,11 +4689,11 @@
         <v>25</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R72">
@@ -4736,11 +4736,11 @@
         <v>19</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O73">
@@ -4774,11 +4774,11 @@
         <v>9</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL74">
@@ -4803,11 +4803,11 @@
         <v>9</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL75">
@@ -4834,11 +4834,11 @@
         <v>8</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R76">
@@ -4866,11 +4866,11 @@
         <v>6</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AL77">
@@ -4895,11 +4895,11 @@
         <v>9</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL78">
@@ -4926,11 +4926,11 @@
         <v>11</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R79">
@@ -4958,11 +4958,11 @@
         <v>6</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AL80">
@@ -4987,11 +4987,11 @@
         <v>9</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL81">
@@ -5016,11 +5016,11 @@
         <v>9</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL82">
@@ -5045,11 +5045,11 @@
         <v>6</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AL83">
@@ -5074,11 +5074,11 @@
         <v>9</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL84">
@@ -5103,11 +5103,11 @@
         <v>6</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AL85">
@@ -5134,11 +5134,11 @@
         <v>31</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I86" s="3">
@@ -5192,11 +5192,11 @@
         <v>8</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I87" s="3">
@@ -5227,11 +5227,11 @@
         <v>9</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL88">
@@ -5258,11 +5258,11 @@
         <v>14</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I89" s="3">
@@ -5299,11 +5299,11 @@
         <v>10</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K90">
@@ -5342,11 +5342,11 @@
         <v>20</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="J91">
@@ -5391,11 +5391,11 @@
         <v>4</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AG92">
@@ -5422,11 +5422,11 @@
         <v>15</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R93">
@@ -5466,11 +5466,11 @@
         <v>9</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL94">
@@ -5495,11 +5495,11 @@
         <v>9</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL95">
@@ -5526,11 +5526,11 @@
         <v>19</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="R96">
@@ -5560,11 +5560,11 @@
         <v>16</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K97">
@@ -5606,11 +5606,11 @@
         <v>11</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R98">
@@ -5640,11 +5640,11 @@
         <v>13</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="R99">
@@ -5675,11 +5675,11 @@
         <v>9</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL100">
@@ -5706,11 +5706,11 @@
         <v>26</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="S101">
@@ -5755,11 +5755,11 @@
         <v>7</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R102">
@@ -5789,11 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I103" s="3">
@@ -5832,11 +5832,11 @@
         <v>43</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="O104">
@@ -5875,11 +5875,11 @@
         <v>16</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I105" s="3">
@@ -5921,11 +5921,11 @@
         <v>23</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O106">
@@ -5961,11 +5961,11 @@
         <v>21</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I107" s="3">
@@ -6007,11 +6007,11 @@
         <v>46</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="I108" s="3">
@@ -6065,11 +6065,11 @@
         <v>42</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H109" s="3">
@@ -6108,11 +6108,11 @@
         <v>27</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="R110">
@@ -6151,11 +6151,11 @@
         <v>27</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="R111">
@@ -6203,11 +6203,11 @@
         <v>15</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H112" s="3">
@@ -6243,11 +6243,11 @@
         <v>9</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AL113">
@@ -6274,11 +6274,11 @@
         <v>11</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="R114">
@@ -6314,11 +6314,11 @@
         <v>27</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="K115">
@@ -6366,11 +6366,11 @@
         <v>10</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H116" s="3">
@@ -6415,11 +6415,11 @@
         <v>17</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I117" s="3">
@@ -6462,11 +6462,11 @@
         <v>21</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="K118">
@@ -6508,11 +6508,11 @@
         <v>26</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="K119">
@@ -6554,11 +6554,11 @@
         <v>44</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="P120">
@@ -6609,11 +6609,11 @@
         <v>14</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G121" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R121">
@@ -6643,11 +6643,11 @@
         <v>33</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G122" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="R122">
@@ -6686,11 +6686,11 @@
         <v>16</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="R123">
@@ -6727,11 +6727,11 @@
         <v>6</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AL124">
@@ -6756,11 +6756,11 @@
         <v>6</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G125" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AL125">
@@ -6787,11 +6787,11 @@
         <v>10</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G126" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="Y126">
@@ -6827,11 +6827,11 @@
         <v>20</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G127" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="P127">
@@ -6868,11 +6868,11 @@
         <v>10</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G128" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AD128">
@@ -6897,11 +6897,11 @@
         <v>21</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R129">
@@ -6940,11 +6940,11 @@
         <v>24</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="R130">
@@ -6987,11 +6987,11 @@
         <v>6</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AL131">
@@ -7016,11 +7016,11 @@
         <v>19</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="R132">
@@ -7059,11 +7059,11 @@
         <v>18</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" ref="F133:F196" si="21">SUM(H133:O133)</f>
+        <f t="shared" ref="F133:F196" si="5">SUM(H133:O133)</f>
         <v>2</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" ref="G133:G196" si="22">SUM(P133:AN133)</f>
+        <f t="shared" ref="G133:G196" si="6">SUM(P133:AN133)</f>
         <v>14</v>
       </c>
       <c r="I133" s="3">
@@ -7103,11 +7103,11 @@
         <v>9</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL134">
@@ -7132,11 +7132,11 @@
         <v>19</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G135" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="I135" s="3">
@@ -7178,11 +7178,11 @@
         <v>11</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G136" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P136">
@@ -7212,11 +7212,11 @@
         <v>17</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="R137">
@@ -7256,11 +7256,11 @@
         <v>9</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G138" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL138">
@@ -7287,11 +7287,11 @@
         <v>39</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G139" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="P139">
@@ -7333,11 +7333,11 @@
         <v>7</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H140" s="3">
@@ -7374,11 +7374,11 @@
         <v>9</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL141">
@@ -7405,11 +7405,11 @@
         <v>13</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G142" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L142">
@@ -7452,11 +7452,11 @@
         <v>5</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G143" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="X143">
@@ -7486,11 +7486,11 @@
         <v>17</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G144" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I144" s="3">
@@ -7536,11 +7536,11 @@
         <v>6</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G145" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL145">
@@ -7565,11 +7565,11 @@
         <v>9</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G146" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL146">
@@ -7594,11 +7594,11 @@
         <v>9</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G147" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL147">
@@ -7623,11 +7623,11 @@
         <v>10</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G148" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="R148">
@@ -7657,11 +7657,11 @@
         <v>20</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G149" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="R149">
@@ -7694,11 +7694,11 @@
         <v>16</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G150" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="AB150">
@@ -7734,11 +7734,11 @@
         <v>19</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G151" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I151" s="3">
@@ -7792,11 +7792,11 @@
         <v>31</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G152" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="H152" s="3">
@@ -7853,11 +7853,11 @@
         <v>7</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G153" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="R153">
@@ -7884,11 +7884,11 @@
         <v>47</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G154" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="I154" s="3">
@@ -7945,11 +7945,11 @@
         <v>18</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G155" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H155" s="3">
@@ -7995,11 +7995,11 @@
         <v>37</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G156" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="V156">
@@ -8035,11 +8035,11 @@
         <v>12</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G157" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="H157" s="3">
@@ -8081,11 +8081,11 @@
         <v>7</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G158" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="R158">
@@ -8115,11 +8115,11 @@
         <v>24</v>
       </c>
       <c r="F159" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G159" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I159" s="3">
@@ -8170,11 +8170,11 @@
         <v>18</v>
       </c>
       <c r="F160" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G160" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I160" s="3">
@@ -8220,11 +8220,11 @@
         <v>28</v>
       </c>
       <c r="F161" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G161" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="R161">
@@ -8266,11 +8266,11 @@
         <v>25</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G162" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="I162" s="3">
@@ -8309,11 +8309,11 @@
         <v>9</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G163" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="R163">
@@ -8346,11 +8346,11 @@
         <v>21</v>
       </c>
       <c r="F164" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G164" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="J164">
@@ -8399,11 +8399,11 @@
         <v>6</v>
       </c>
       <c r="F165" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G165" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL165">
@@ -8430,11 +8430,11 @@
         <v>26</v>
       </c>
       <c r="F166" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="G166" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="I166" s="3">
@@ -8485,11 +8485,11 @@
         <v>13</v>
       </c>
       <c r="F167" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G167" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N167">
@@ -8531,11 +8531,11 @@
         <v>30</v>
       </c>
       <c r="F168" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="G168" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I168" s="3">
@@ -8583,11 +8583,11 @@
         <v>14</v>
       </c>
       <c r="F169" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="G169" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I169" s="3">
@@ -8629,11 +8629,11 @@
         <v>3</v>
       </c>
       <c r="F170" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G170" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="R170">
@@ -8661,11 +8661,11 @@
         <v>19</v>
       </c>
       <c r="F171" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G171" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I171" s="3">
@@ -8707,11 +8707,11 @@
         <v>17</v>
       </c>
       <c r="F172" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G172" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="H172" s="3">
@@ -8759,11 +8759,11 @@
         <v>34</v>
       </c>
       <c r="F173" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G173" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="H173" s="3">
@@ -8815,11 +8815,11 @@
         <v>6</v>
       </c>
       <c r="F174" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G174" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL174">
@@ -8846,11 +8846,11 @@
         <v>16</v>
       </c>
       <c r="F175" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G175" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AA175">
@@ -8883,11 +8883,11 @@
         <v>19</v>
       </c>
       <c r="F176" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G176" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="R176">
@@ -8929,11 +8929,11 @@
         <v>23</v>
       </c>
       <c r="F177" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G177" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="O177">
@@ -8973,11 +8973,11 @@
         <v>9</v>
       </c>
       <c r="F178" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G178" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL178">
@@ -9004,11 +9004,11 @@
         <v>2</v>
       </c>
       <c r="F179" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G179" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF179">
@@ -9032,11 +9032,11 @@
         <v>16</v>
       </c>
       <c r="F180" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G180" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J180">
@@ -9082,11 +9082,11 @@
         <v>13</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G181" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I181" s="3">
@@ -9134,11 +9134,11 @@
         <v>23</v>
       </c>
       <c r="F182" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G182" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="J182">
@@ -9189,11 +9189,11 @@
         <v>15</v>
       </c>
       <c r="F183" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G183" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R183">
@@ -9223,11 +9223,11 @@
         <v>29</v>
       </c>
       <c r="F184" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G184" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="R184">
@@ -9278,11 +9278,11 @@
         <v>13</v>
       </c>
       <c r="F185" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G185" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I185" s="3">
@@ -9319,11 +9319,11 @@
         <v>20</v>
       </c>
       <c r="F186" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G186" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="R186">
@@ -9371,11 +9371,11 @@
         <v>19</v>
       </c>
       <c r="F187" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G187" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="R187">
@@ -9417,11 +9417,11 @@
         <v>30</v>
       </c>
       <c r="F188" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G188" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="Q188">
@@ -9455,11 +9455,11 @@
         <v>19</v>
       </c>
       <c r="F189" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G189" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I189" s="3">
@@ -9496,11 +9496,11 @@
         <v>6</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G190" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL190">
@@ -9527,11 +9527,11 @@
         <v>10</v>
       </c>
       <c r="F191" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G191" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AD191">
@@ -9565,11 +9565,11 @@
         <v>6</v>
       </c>
       <c r="F192" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G192" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL192">
@@ -9594,11 +9594,11 @@
         <v>9</v>
       </c>
       <c r="F193" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G193" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL193">
@@ -9623,11 +9623,11 @@
         <v>6</v>
       </c>
       <c r="F194" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G194" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL194">
@@ -9652,11 +9652,11 @@
         <v>12</v>
       </c>
       <c r="F195" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G195" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9677,11 +9677,11 @@
         <v>12</v>
       </c>
       <c r="F196" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G196" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="H196" s="3">
@@ -9726,11 +9726,11 @@
         <v>8</v>
       </c>
       <c r="F197" s="3">
-        <f t="shared" ref="F197:F260" si="23">SUM(H197:O197)</f>
+        <f t="shared" ref="F197:F260" si="7">SUM(H197:O197)</f>
         <v>2</v>
       </c>
       <c r="G197" s="4">
-        <f t="shared" ref="G197:G260" si="24">SUM(P197:AN197)</f>
+        <f t="shared" ref="G197:G260" si="8">SUM(P197:AN197)</f>
         <v>4</v>
       </c>
       <c r="I197" s="3">
@@ -9763,11 +9763,11 @@
         <v>27</v>
       </c>
       <c r="F198" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G198" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="M198">
@@ -9816,11 +9816,11 @@
         <v>9</v>
       </c>
       <c r="F199" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G199" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AL199">
@@ -9847,11 +9847,11 @@
         <v>16</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G200" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="O200">
@@ -9893,11 +9893,11 @@
         <v>33</v>
       </c>
       <c r="F201" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G201" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R201">
@@ -9928,11 +9928,11 @@
         <v>24</v>
       </c>
       <c r="F202" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="G202" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I202" s="3">
@@ -9981,11 +9981,11 @@
         <v>9</v>
       </c>
       <c r="F203" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G203" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z203">
@@ -10019,11 +10019,11 @@
         <v>9</v>
       </c>
       <c r="F204" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G204" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AL204">
@@ -10048,11 +10048,11 @@
         <v>6</v>
       </c>
       <c r="F205" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G205" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL205">
@@ -10079,11 +10079,11 @@
         <v>40</v>
       </c>
       <c r="F206" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="G206" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="H206" s="3">
@@ -10129,11 +10129,11 @@
         <v>10</v>
       </c>
       <c r="F207" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G207" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="M207">
@@ -10178,11 +10178,11 @@
         <v>16</v>
       </c>
       <c r="F208" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G208" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="R208">
@@ -10221,11 +10221,11 @@
         <v>12</v>
       </c>
       <c r="F209" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G209" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="O209">
@@ -10264,11 +10264,11 @@
         <v>17</v>
       </c>
       <c r="F210" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G210" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J210">
@@ -10313,11 +10313,11 @@
         <v>28</v>
       </c>
       <c r="F211" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G211" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="P211">
@@ -10362,11 +10362,11 @@
         <v>1</v>
       </c>
       <c r="F212" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G212" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10385,11 +10385,11 @@
         <v>9</v>
       </c>
       <c r="F213" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G213" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AL213">
@@ -10414,11 +10414,11 @@
         <v>52</v>
       </c>
       <c r="F214" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G214" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="H214" s="3">
@@ -10469,11 +10469,11 @@
         <v>25</v>
       </c>
       <c r="F215" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G215" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I215" s="3">
@@ -10518,11 +10518,11 @@
         <v>12</v>
       </c>
       <c r="F216" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G216" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="N216">
@@ -10556,11 +10556,11 @@
         <v>9</v>
       </c>
       <c r="F217" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G217" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AL217">
@@ -10587,11 +10587,11 @@
         <v>22</v>
       </c>
       <c r="F218" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G218" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="H218" s="3">
@@ -10633,11 +10633,11 @@
         <v>4</v>
       </c>
       <c r="F219" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G219" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I219" s="3">
@@ -10668,11 +10668,11 @@
         <v>27</v>
       </c>
       <c r="F220" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G220" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="V220">
@@ -10711,11 +10711,11 @@
         <v>13</v>
       </c>
       <c r="F221" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I221" s="3">
@@ -10757,11 +10757,11 @@
         <v>24</v>
       </c>
       <c r="F222" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G222" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I222" s="3">
@@ -10815,11 +10815,11 @@
         <v>4</v>
       </c>
       <c r="F223" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G223" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J223">
@@ -10853,11 +10853,11 @@
         <v>6</v>
       </c>
       <c r="F224" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G224" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL224">
@@ -10884,11 +10884,11 @@
         <v>51</v>
       </c>
       <c r="F225" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="G225" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="I225" s="3">
@@ -10948,11 +10948,11 @@
         <v>18</v>
       </c>
       <c r="F226" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G226" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="R226">
@@ -10991,11 +10991,11 @@
         <v>27</v>
       </c>
       <c r="F227" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G227" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H227" s="3">
@@ -11040,11 +11040,11 @@
         <v>9</v>
       </c>
       <c r="F228" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G228" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="T228">
@@ -11077,11 +11077,11 @@
         <v>19</v>
       </c>
       <c r="F229" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G229" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="R229">
@@ -11123,11 +11123,11 @@
         <v>20</v>
       </c>
       <c r="F230" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G230" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="U230">
@@ -11166,11 +11166,11 @@
         <v>20</v>
       </c>
       <c r="F231" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G231" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="R231">
@@ -11204,11 +11204,11 @@
         <v>7</v>
       </c>
       <c r="F232" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G232" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R232">
@@ -11241,11 +11241,11 @@
         <v>48</v>
       </c>
       <c r="F233" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G233" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I233" s="3">
@@ -11285,11 +11285,11 @@
         <v>6</v>
       </c>
       <c r="F234" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G234" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL234">
@@ -11316,11 +11316,11 @@
         <v>15</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G235" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="Z235">
@@ -11360,11 +11360,11 @@
         <v>11</v>
       </c>
       <c r="F236" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G236" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="P236">
@@ -11398,11 +11398,11 @@
         <v>18</v>
       </c>
       <c r="F237" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G237" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="J237">
@@ -11451,11 +11451,11 @@
         <v>13</v>
       </c>
       <c r="F238" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G238" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R238">
@@ -11491,11 +11491,11 @@
         <v>13</v>
       </c>
       <c r="F239" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G239" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="P239">
@@ -11534,11 +11534,11 @@
         <v>20</v>
       </c>
       <c r="F240" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G240" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I240" s="3">
@@ -11583,11 +11583,11 @@
         <v>13</v>
       </c>
       <c r="F241" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G241" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="K241">
@@ -11627,11 +11627,11 @@
         <v>6</v>
       </c>
       <c r="F242" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G242" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL242">
@@ -11656,11 +11656,11 @@
         <v>9</v>
       </c>
       <c r="F243" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G243" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AL243">
@@ -11685,11 +11685,11 @@
         <v>6</v>
       </c>
       <c r="F244" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G244" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL244">
@@ -11716,11 +11716,11 @@
         <v>20</v>
       </c>
       <c r="F245" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G245" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="T245">
@@ -11763,11 +11763,11 @@
         <v>18</v>
       </c>
       <c r="F246" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G246" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I246" s="3">
@@ -11816,11 +11816,11 @@
         <v>6</v>
       </c>
       <c r="F247" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G247" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL247">
@@ -11845,11 +11845,11 @@
         <v>11</v>
       </c>
       <c r="F248" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G248" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Z248">
@@ -11882,11 +11882,11 @@
         <v>18</v>
       </c>
       <c r="F249" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G249" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K249">
@@ -11914,11 +11914,11 @@
         <v>6</v>
       </c>
       <c r="F250" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G250" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL250">
@@ -11943,11 +11943,11 @@
         <v>6</v>
       </c>
       <c r="F251" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G251" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AL251">
@@ -11974,11 +11974,11 @@
         <v>17</v>
       </c>
       <c r="F252" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G252" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="K252">
@@ -12026,11 +12026,11 @@
         <v>32</v>
       </c>
       <c r="F253" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G253" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H253" s="3">
@@ -12085,11 +12085,11 @@
         <v>8</v>
       </c>
       <c r="F254" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G254" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="S254">
@@ -12119,11 +12119,11 @@
         <v>25</v>
       </c>
       <c r="F255" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="G255" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H255" s="3">
@@ -12177,11 +12177,11 @@
         <v>18</v>
       </c>
       <c r="F256" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G256" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="L256">
@@ -12220,11 +12220,11 @@
         <v>20</v>
       </c>
       <c r="F257" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G257" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I257">
@@ -12272,11 +12272,11 @@
         <v>12</v>
       </c>
       <c r="F258" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G258" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="K258">
@@ -12312,11 +12312,11 @@
         <v>10</v>
       </c>
       <c r="F259" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G259" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I259">
@@ -12358,11 +12358,11 @@
         <v>20</v>
       </c>
       <c r="F260" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="G260" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I260">
@@ -12416,11 +12416,11 @@
         <v>23</v>
       </c>
       <c r="F261" s="3">
-        <f t="shared" ref="F261:F324" si="25">SUM(H261:O261)</f>
+        <f t="shared" ref="F261:F324" si="9">SUM(H261:O261)</f>
         <v>2</v>
       </c>
       <c r="G261" s="4">
-        <f t="shared" ref="G261:G324" si="26">SUM(P261:AN261)</f>
+        <f t="shared" ref="G261:G324" si="10">SUM(P261:AN261)</f>
         <v>16</v>
       </c>
       <c r="I261">
@@ -12460,11 +12460,11 @@
         <v>17</v>
       </c>
       <c r="F262" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G262" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="R262">
@@ -12512,11 +12512,11 @@
         <v>16</v>
       </c>
       <c r="F263" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G263" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="I263">
@@ -12556,11 +12556,11 @@
         <v>9</v>
       </c>
       <c r="F264" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G264" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AL264">
@@ -12587,11 +12587,11 @@
         <v>38</v>
       </c>
       <c r="F265" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G265" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="R265">
@@ -12636,11 +12636,11 @@
         <v>25</v>
       </c>
       <c r="F266" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="G266" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="I266">
@@ -12688,11 +12688,11 @@
         <v>21</v>
       </c>
       <c r="F267" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G267" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="X267">
@@ -12731,11 +12731,11 @@
         <v>15</v>
       </c>
       <c r="F268" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G268" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="R268">
@@ -12772,11 +12772,11 @@
         <v>9</v>
       </c>
       <c r="F269" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G269" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="W269">
@@ -12803,11 +12803,11 @@
         <v>22</v>
       </c>
       <c r="F270" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G270" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="I270">
@@ -12852,11 +12852,11 @@
         <v>7</v>
       </c>
       <c r="F271" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G271" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J271">
@@ -12887,11 +12887,11 @@
         <v>6</v>
       </c>
       <c r="F272" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G272" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AL272">
@@ -12918,11 +12918,11 @@
         <v>15</v>
       </c>
       <c r="F273" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G273" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="P273">
@@ -12961,11 +12961,11 @@
         <v>19</v>
       </c>
       <c r="F274" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G274" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="R274">
@@ -12999,11 +12999,11 @@
         <v>57</v>
       </c>
       <c r="F275" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G275" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="AA275">
@@ -13048,11 +13048,11 @@
         <v>9</v>
       </c>
       <c r="F276" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G276" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="P276">
@@ -13086,11 +13086,11 @@
         <v>6</v>
       </c>
       <c r="F277" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G277" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AL277">
@@ -13117,11 +13117,11 @@
         <v>0</v>
       </c>
       <c r="F278" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G278" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13142,11 +13142,11 @@
         <v>14</v>
       </c>
       <c r="F279" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G279" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="R279">
@@ -13180,11 +13180,11 @@
         <v>5</v>
       </c>
       <c r="F280" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G280" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AL280">
@@ -13211,11 +13211,11 @@
         <v>8</v>
       </c>
       <c r="F281" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G281" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L281">
@@ -13254,11 +13254,11 @@
         <v>16</v>
       </c>
       <c r="F282" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G282" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="R282">
@@ -13303,11 +13303,11 @@
         <v>17</v>
       </c>
       <c r="F283" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G283" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="R283">
@@ -13343,11 +13343,11 @@
         <v>35</v>
       </c>
       <c r="F284" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G284" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="J284">
@@ -13398,11 +13398,11 @@
         <v>22</v>
       </c>
       <c r="F285" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G285" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="I285">
@@ -13441,11 +13441,11 @@
         <v>8</v>
       </c>
       <c r="F286" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G286" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I286">
@@ -13485,11 +13485,11 @@
         <v>7</v>
       </c>
       <c r="F287" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G287" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AF287">
@@ -13516,11 +13516,11 @@
         <v>9</v>
       </c>
       <c r="F288" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G288" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="R288">
@@ -13556,11 +13556,11 @@
         <v>22</v>
       </c>
       <c r="F289" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G289" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="R289">
@@ -13608,11 +13608,11 @@
         <v>32</v>
       </c>
       <c r="F290" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G290" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="R290">
@@ -13657,11 +13657,11 @@
         <v>18</v>
       </c>
       <c r="F291" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G291" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="H291" s="3">
@@ -13709,11 +13709,11 @@
         <v>18</v>
       </c>
       <c r="F292" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G292" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="I292">
@@ -13750,11 +13750,11 @@
         <v>6</v>
       </c>
       <c r="F293" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G293" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AL293">
@@ -13781,11 +13781,11 @@
         <v>36</v>
       </c>
       <c r="F294" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G294" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="R294">
@@ -13831,11 +13831,11 @@
         <v>6</v>
       </c>
       <c r="F295" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G295" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AL295">
@@ -13862,11 +13862,11 @@
         <v>11</v>
       </c>
       <c r="F296" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G296" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I296">
@@ -13902,11 +13902,11 @@
         <v>12</v>
       </c>
       <c r="F297" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G297" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AK297">
@@ -13936,11 +13936,11 @@
         <v>15</v>
       </c>
       <c r="F298" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G298" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="R298">
@@ -13982,11 +13982,11 @@
         <v>12</v>
       </c>
       <c r="F299" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G299" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="I299">
@@ -14029,11 +14029,11 @@
         <v>0</v>
       </c>
       <c r="F300" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G300" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14054,11 +14054,11 @@
         <v>18</v>
       </c>
       <c r="F301" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G301" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="N301">
@@ -14097,11 +14097,11 @@
         <v>23</v>
       </c>
       <c r="F302" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G302" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="I302">
@@ -14152,11 +14152,11 @@
         <v>25</v>
       </c>
       <c r="F303" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G303" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="R303">
@@ -14193,11 +14193,11 @@
         <v>17</v>
       </c>
       <c r="F304" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="G304" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="H304" s="3">
@@ -14255,11 +14255,11 @@
         <v>6</v>
       </c>
       <c r="F305" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G305" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AL305">
@@ -14286,11 +14286,11 @@
         <v>12</v>
       </c>
       <c r="F306" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G306" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="L306">
@@ -14327,11 +14327,11 @@
         <v>16</v>
       </c>
       <c r="F307" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G307" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="R307">
@@ -14374,11 +14374,11 @@
         <v>16</v>
       </c>
       <c r="F308" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G308" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="R308">
@@ -14424,11 +14424,11 @@
         <v>6</v>
       </c>
       <c r="F309" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G309" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="P309">
@@ -14458,11 +14458,11 @@
         <v>16</v>
       </c>
       <c r="F310" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G310" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="I310">
@@ -14508,11 +14508,11 @@
         <v>12</v>
       </c>
       <c r="F311" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G311" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I311">
@@ -14548,11 +14548,11 @@
         <v>14</v>
       </c>
       <c r="F312" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G312" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="R312">
@@ -14589,11 +14589,11 @@
         <v>9</v>
       </c>
       <c r="F313" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G313" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="I313">
@@ -14629,11 +14629,11 @@
         <v>24</v>
       </c>
       <c r="F314" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G314" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H314" s="3">
@@ -14681,11 +14681,11 @@
         <v>14</v>
       </c>
       <c r="F315" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G315" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="J315">
@@ -14724,11 +14724,11 @@
         <v>27</v>
       </c>
       <c r="F316" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G316" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="K316">
@@ -14777,11 +14777,11 @@
         <v>11</v>
       </c>
       <c r="F317" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G317" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AD317">
@@ -14806,11 +14806,11 @@
         <v>9</v>
       </c>
       <c r="F318" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G318" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AL318">
@@ -14835,11 +14835,11 @@
         <v>6</v>
       </c>
       <c r="F319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G319" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AL319">
@@ -14866,11 +14866,11 @@
         <v>21</v>
       </c>
       <c r="F320" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G320" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="O320">
@@ -14907,11 +14907,11 @@
         <v>17</v>
       </c>
       <c r="F321" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G321" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="R321">
@@ -14948,11 +14948,11 @@
         <v>6</v>
       </c>
       <c r="F322" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G322" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AL322">
@@ -14979,11 +14979,11 @@
         <v>24</v>
       </c>
       <c r="F323" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G323" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="R323">
@@ -15019,11 +15019,11 @@
         <v>15</v>
       </c>
       <c r="F324" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G324" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="R324">
@@ -15063,11 +15063,11 @@
         <v>9</v>
       </c>
       <c r="F325" s="3">
-        <f t="shared" ref="F325:F388" si="27">SUM(H325:O325)</f>
+        <f t="shared" ref="F325:F388" si="11">SUM(H325:O325)</f>
         <v>0</v>
       </c>
       <c r="G325" s="4">
-        <f t="shared" ref="G325:G388" si="28">SUM(P325:AN325)</f>
+        <f t="shared" ref="G325:G388" si="12">SUM(P325:AN325)</f>
         <v>9</v>
       </c>
       <c r="AL325">
@@ -15092,11 +15092,11 @@
         <v>9</v>
       </c>
       <c r="F326" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G326" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL326">
@@ -15121,11 +15121,11 @@
         <v>9</v>
       </c>
       <c r="F327" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G327" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL327">
@@ -15150,11 +15150,11 @@
         <v>1</v>
       </c>
       <c r="F328" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G328" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AM328">
@@ -15176,11 +15176,11 @@
         <v>21</v>
       </c>
       <c r="F329" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G329" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="R329">
@@ -15222,11 +15222,11 @@
         <v>10</v>
       </c>
       <c r="F330" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G330" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="R330">
@@ -15254,11 +15254,11 @@
         <v>6</v>
       </c>
       <c r="F331" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G331" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL331">
@@ -15285,11 +15285,11 @@
         <v>27</v>
       </c>
       <c r="F332" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G332" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="R332">
@@ -15328,11 +15328,11 @@
         <v>29</v>
       </c>
       <c r="F333" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G333" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="O333">
@@ -15380,11 +15380,11 @@
         <v>14</v>
       </c>
       <c r="F334" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G334" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="R334">
@@ -15420,11 +15420,11 @@
         <v>14</v>
       </c>
       <c r="F335" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G335" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="I335">
@@ -15466,11 +15466,11 @@
         <v>7</v>
       </c>
       <c r="F336" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G336" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="M336">
@@ -15503,11 +15503,11 @@
         <v>8</v>
       </c>
       <c r="F337" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G337" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -15528,11 +15528,11 @@
         <v>33</v>
       </c>
       <c r="F338" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G338" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="R338">
@@ -15577,11 +15577,11 @@
         <v>16</v>
       </c>
       <c r="F339" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G339" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="L339">
@@ -15621,11 +15621,11 @@
         <v>9</v>
       </c>
       <c r="F340" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G340" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL340">
@@ -15650,11 +15650,11 @@
         <v>11</v>
       </c>
       <c r="F341" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G341" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL341">
@@ -15679,11 +15679,11 @@
         <v>9</v>
       </c>
       <c r="F342" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G342" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL342">
@@ -15708,11 +15708,11 @@
         <v>9</v>
       </c>
       <c r="F343" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G343" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL343">
@@ -15739,11 +15739,11 @@
         <v>7</v>
       </c>
       <c r="F344" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G344" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I344">
@@ -15780,11 +15780,11 @@
         <v>33</v>
       </c>
       <c r="F345" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G345" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="R345">
@@ -15832,11 +15832,11 @@
         <v>9</v>
       </c>
       <c r="F346" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G346" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="X346">
@@ -15861,11 +15861,11 @@
         <v>9</v>
       </c>
       <c r="F347" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G347" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL347">
@@ -15890,11 +15890,11 @@
         <v>6</v>
       </c>
       <c r="F348" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G348" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL348">
@@ -15919,11 +15919,11 @@
         <v>6</v>
       </c>
       <c r="F349" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G349" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="Z349">
@@ -15950,11 +15950,11 @@
         <v>8</v>
       </c>
       <c r="F350" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G350" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Z350">
@@ -15987,11 +15987,11 @@
         <v>34</v>
       </c>
       <c r="F351" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="G351" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="H351" s="3">
@@ -16033,11 +16033,11 @@
         <v>17</v>
       </c>
       <c r="F352" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G352" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K352">
@@ -16074,11 +16074,11 @@
         <v>9</v>
       </c>
       <c r="F353" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G353" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL353">
@@ -16105,11 +16105,11 @@
         <v>14</v>
       </c>
       <c r="F354" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G354" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="R354">
@@ -16154,11 +16154,11 @@
         <v>16</v>
       </c>
       <c r="F355" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G355" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="J355">
@@ -16203,11 +16203,11 @@
         <v>9</v>
       </c>
       <c r="F356" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G356" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="I356">
@@ -16244,11 +16244,11 @@
         <v>9</v>
       </c>
       <c r="F357" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G357" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL357">
@@ -16275,11 +16275,11 @@
         <v>10</v>
       </c>
       <c r="F358" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G358" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="O358">
@@ -16313,11 +16313,11 @@
         <v>6</v>
       </c>
       <c r="F359" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G359" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL359">
@@ -16342,11 +16342,11 @@
         <v>9</v>
       </c>
       <c r="F360" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G360" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="W360">
@@ -16374,11 +16374,11 @@
         <v>6</v>
       </c>
       <c r="F361" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G361" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL361">
@@ -16403,11 +16403,11 @@
         <v>0</v>
       </c>
       <c r="F362" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G362" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -16428,11 +16428,11 @@
         <v>5</v>
       </c>
       <c r="F363" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G363" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AF363">
@@ -16457,11 +16457,11 @@
         <v>20</v>
       </c>
       <c r="F364" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G364" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="O364">
@@ -16509,11 +16509,11 @@
         <v>18</v>
       </c>
       <c r="F365" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G365" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="R365">
@@ -16547,11 +16547,11 @@
         <v>9</v>
       </c>
       <c r="F366" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G366" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL366">
@@ -16576,11 +16576,11 @@
         <v>9</v>
       </c>
       <c r="F367" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G367" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL367">
@@ -16605,11 +16605,11 @@
         <v>9</v>
       </c>
       <c r="F368" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G368" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL368">
@@ -16636,11 +16636,11 @@
         <v>10</v>
       </c>
       <c r="F369" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G369" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="R369">
@@ -16676,11 +16676,11 @@
         <v>19</v>
       </c>
       <c r="F370" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G370" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="R370">
@@ -16711,11 +16711,11 @@
         <v>9</v>
       </c>
       <c r="F371" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G371" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL371">
@@ -16740,11 +16740,11 @@
         <v>16</v>
       </c>
       <c r="F372" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G372" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="AE372">
@@ -16786,11 +16786,11 @@
         <v>8</v>
       </c>
       <c r="F373" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G373" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AJ373">
@@ -16817,11 +16817,11 @@
         <v>11</v>
       </c>
       <c r="F374" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G374" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O374">
@@ -16855,11 +16855,11 @@
         <v>35</v>
       </c>
       <c r="F375" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G375" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="R375">
@@ -16899,11 +16899,11 @@
         <v>6</v>
       </c>
       <c r="F376" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G376" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL376">
@@ -16928,11 +16928,11 @@
         <v>6</v>
       </c>
       <c r="F377" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G377" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL377">
@@ -16957,11 +16957,11 @@
         <v>9</v>
       </c>
       <c r="F378" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G378" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="S378">
@@ -16989,11 +16989,11 @@
         <v>7</v>
       </c>
       <c r="F379" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G379" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O379">
@@ -17021,11 +17021,11 @@
         <v>9</v>
       </c>
       <c r="F380" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G380" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL380">
@@ -17050,11 +17050,11 @@
         <v>9</v>
       </c>
       <c r="F381" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G381" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL381">
@@ -17079,11 +17079,11 @@
         <v>9</v>
       </c>
       <c r="F382" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G382" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL382">
@@ -17110,11 +17110,11 @@
         <v>3</v>
       </c>
       <c r="F383" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G383" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AG383">
@@ -17142,11 +17142,11 @@
         <v>9</v>
       </c>
       <c r="F384" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G384" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL384">
@@ -17171,11 +17171,11 @@
         <v>3</v>
       </c>
       <c r="F385" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G385" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AM385">
@@ -17197,11 +17197,11 @@
         <v>9</v>
       </c>
       <c r="F386" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G386" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL386">
@@ -17226,11 +17226,11 @@
         <v>6</v>
       </c>
       <c r="F387" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G387" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL387">
@@ -17255,11 +17255,11 @@
         <v>9</v>
       </c>
       <c r="F388" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G388" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AL388">
@@ -17286,11 +17286,11 @@
         <v>12</v>
       </c>
       <c r="F389" s="3">
-        <f t="shared" ref="F389:F430" si="29">SUM(H389:O389)</f>
+        <f t="shared" ref="F389:F430" si="13">SUM(H389:O389)</f>
         <v>0</v>
       </c>
       <c r="G389" s="4">
-        <f t="shared" ref="G389:G430" si="30">SUM(P389:AN389)</f>
+        <f t="shared" ref="G389:G430" si="14">SUM(P389:AN389)</f>
         <v>11</v>
       </c>
       <c r="R389">
@@ -17323,11 +17323,11 @@
         <v>13</v>
       </c>
       <c r="F390" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G390" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="W390">
@@ -17364,11 +17364,11 @@
         <v>6</v>
       </c>
       <c r="F391" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G391" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AL391">
@@ -17395,11 +17395,11 @@
         <v>21</v>
       </c>
       <c r="F392" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G392" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="I392">
@@ -17451,11 +17451,11 @@
         <v>6</v>
       </c>
       <c r="F393" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G393" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AL393">
@@ -17482,11 +17482,11 @@
         <v>6</v>
       </c>
       <c r="F394" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="G394" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I394">
@@ -17511,11 +17511,11 @@
         <v>9</v>
       </c>
       <c r="F395" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G395" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Z395">
@@ -17543,11 +17543,11 @@
         <v>6</v>
       </c>
       <c r="F396" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G396" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AL396">
@@ -17572,11 +17572,11 @@
         <v>9</v>
       </c>
       <c r="F397" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G397" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL397">
@@ -17601,11 +17601,11 @@
         <v>5</v>
       </c>
       <c r="F398" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G398" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="X398">
@@ -17630,11 +17630,11 @@
         <v>9</v>
       </c>
       <c r="F399" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G399" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL399">
@@ -17661,11 +17661,11 @@
         <v>18</v>
       </c>
       <c r="F400" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G400" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="S400">
@@ -17702,11 +17702,11 @@
         <v>16</v>
       </c>
       <c r="F401" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G401" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I401">
@@ -17739,11 +17739,11 @@
         <v>38</v>
       </c>
       <c r="F402" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G402" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="I402">
@@ -17789,11 +17789,11 @@
         <v>9</v>
       </c>
       <c r="F403" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G403" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL403">
@@ -17818,11 +17818,11 @@
         <v>11</v>
       </c>
       <c r="F404" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G404" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL404">
@@ -17849,11 +17849,11 @@
         <v>15</v>
       </c>
       <c r="F405" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G405" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="O405">
@@ -17893,11 +17893,11 @@
         <v>9</v>
       </c>
       <c r="F406" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G406" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL406">
@@ -17922,11 +17922,11 @@
         <v>9</v>
       </c>
       <c r="F407" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G407" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL407">
@@ -17953,11 +17953,11 @@
         <v>14</v>
       </c>
       <c r="F408" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G408" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="Y408">
@@ -17999,11 +17999,11 @@
         <v>29</v>
       </c>
       <c r="F409" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G409" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="M409">
@@ -18052,11 +18052,11 @@
         <v>9</v>
       </c>
       <c r="F410" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G410" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL410">
@@ -18081,11 +18081,11 @@
         <v>9</v>
       </c>
       <c r="F411" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G411" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL411">
@@ -18110,11 +18110,11 @@
         <v>9</v>
       </c>
       <c r="F412" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G412" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL412">
@@ -18141,11 +18141,11 @@
         <v>14</v>
       </c>
       <c r="F413" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G413" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R413">
@@ -18176,11 +18176,11 @@
         <v>8</v>
       </c>
       <c r="F414" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G414" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AH414">
@@ -18211,11 +18211,11 @@
         <v>9</v>
       </c>
       <c r="F415" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G415" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL415">
@@ -18240,11 +18240,11 @@
         <v>6</v>
       </c>
       <c r="F416" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G416" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AL416">
@@ -18269,11 +18269,11 @@
         <v>6</v>
       </c>
       <c r="F417" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G417" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AL417">
@@ -18300,11 +18300,11 @@
         <v>6</v>
       </c>
       <c r="F418" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G418" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AL418">
@@ -18329,11 +18329,11 @@
         <v>9</v>
       </c>
       <c r="F419" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G419" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL419">
@@ -18358,11 +18358,11 @@
         <v>9</v>
       </c>
       <c r="F420" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G420" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL420">
@@ -18387,11 +18387,11 @@
         <v>6</v>
       </c>
       <c r="F421" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G421" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AL421">
@@ -18418,11 +18418,11 @@
         <v>9</v>
       </c>
       <c r="F422" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G422" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="R422">
@@ -18459,11 +18459,11 @@
         <v>9</v>
       </c>
       <c r="F423" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G423" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL423">
@@ -18490,11 +18490,11 @@
         <v>10</v>
       </c>
       <c r="F424" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G424" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="I424">
@@ -18531,11 +18531,11 @@
         <v>9</v>
       </c>
       <c r="F425" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G425" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AL425">
@@ -18562,11 +18562,11 @@
         <v>11</v>
       </c>
       <c r="F426" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G426" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="K426">
@@ -18602,11 +18602,11 @@
         <v>16</v>
       </c>
       <c r="F427" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G427" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="I427">
@@ -18654,11 +18654,11 @@
         <v>5</v>
       </c>
       <c r="F428" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G428" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="Z428">
@@ -18686,11 +18686,11 @@
         <v>1</v>
       </c>
       <c r="F429" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G429" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AM429">
@@ -18714,11 +18714,11 @@
         <v>8</v>
       </c>
       <c r="F430" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G430" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="U430">
